--- a/src/test/resources/login_test_cases.xlsx
+++ b/src/test/resources/login_test_cases.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
